--- a/configs_rl.xlsx
+++ b/configs_rl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reizinger Patrik\Documents\GitHub\GANerated-curiosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD38D5F-07FB-4152-B388-617817ED49B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39DC3E2-AE7C-4051-AD10-0B4C3C394CCC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{197C701C-957C-4E8C-9796-037C7C4CDE85}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="24">
   <si>
     <t>env</t>
   </si>
@@ -499,7 +499,7 @@
   <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,10 +629,10 @@
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -653,10 +653,10 @@
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -773,7 +773,9 @@
       <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -795,7 +797,9 @@
       <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -842,7 +846,9 @@
         <v>9</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -864,7 +870,9 @@
         <v>9</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -886,7 +894,9 @@
         <v>9</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -908,7 +918,9 @@
         <v>9</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -930,7 +942,9 @@
         <v>9</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -952,7 +966,9 @@
         <v>9</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">

--- a/configs_rl.xlsx
+++ b/configs_rl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reizinger Patrik\Documents\GitHub\GANerated-curiosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39DC3E2-AE7C-4051-AD10-0B4C3C394CCC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD40B5C8-90FD-401F-9037-29DE39112A20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{197C701C-957C-4E8C-9796-037C7C4CDE85}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="26">
   <si>
     <t>env</t>
   </si>
@@ -105,6 +105,12 @@
   <si>
     <t>running</t>
   </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>new_running</t>
+  </si>
 </sst>
 </file>
 
@@ -120,12 +126,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,14 +152,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -183,17 +202,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{87476BB4-518E-4811-92EC-CFBB24D7A51F}" name="rl_configs" displayName="rl_configs" ref="A1:H91" totalsRowShown="0">
-  <autoFilter ref="A1:H91" xr:uid="{C9955FF7-BBD7-44A1-B74A-F030BC7B7E0B}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{87476BB4-518E-4811-92EC-CFBB24D7A51F}" name="rl_configs" displayName="rl_configs" ref="A1:J91" totalsRowShown="0">
+  <autoFilter ref="A1:J91" xr:uid="{C9955FF7-BBD7-44A1-B74A-F030BC7B7E0B}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{EED86EC7-D34C-41DC-8CF2-0878C0BDAB13}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{4AF47B9B-D698-4449-9940-382316EB4DA9}" name="env" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{1777EFA1-AF92-4754-BBB0-CE68377C1639}" name="tau" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{CD16C617-614C-48F7-A85F-E0BE46D1083B}" name="attn_target" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{AC1F632D-8652-43C8-83A4-AB1ED01C5EFD}" name="attn_type" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{9BFA4D38-2B22-4099-860C-F14DD2C9D5E9}" name="cur_coeff" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{3B6AAB61-0BB5-48D2-BF29-3E99DA4CC404}" name="done" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{53DAB832-F0E8-49CF-A83C-DAC16C7FEBDD}" name="running" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{4AF47B9B-D698-4449-9940-382316EB4DA9}" name="env" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{1777EFA1-AF92-4754-BBB0-CE68377C1639}" name="tau" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{CD16C617-614C-48F7-A85F-E0BE46D1083B}" name="attn_target" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{AC1F632D-8652-43C8-83A4-AB1ED01C5EFD}" name="attn_type" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{9BFA4D38-2B22-4099-860C-F14DD2C9D5E9}" name="cur_coeff" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{3B6AAB61-0BB5-48D2-BF29-3E99DA4CC404}" name="done" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{53DAB832-F0E8-49CF-A83C-DAC16C7FEBDD}" name="running" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{C8122467-E5B7-4CCF-8397-30E37E755416}" name="new" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{531307B6-C542-4D74-A361-9C657298CE87}" name="new_running" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -496,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90360FE3-FFE1-4BF5-B0F2-8A727D6CBD2B}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +533,7 @@
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -537,8 +558,14 @@
       <c r="H1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -561,8 +588,14 @@
         <v>22</v>
       </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -585,8 +618,14 @@
         <v>22</v>
       </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -609,8 +648,12 @@
         <v>22</v>
       </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -633,8 +676,12 @@
         <v>22</v>
       </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -657,8 +704,12 @@
         <v>22</v>
       </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -681,8 +732,12 @@
         <v>22</v>
       </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -705,8 +760,12 @@
         <v>22</v>
       </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -729,8 +788,12 @@
         <v>22</v>
       </c>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -753,8 +816,12 @@
         <v>22</v>
       </c>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -777,8 +844,12 @@
         <v>22</v>
       </c>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -801,8 +872,12 @@
         <v>22</v>
       </c>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -825,8 +900,12 @@
         <v>22</v>
       </c>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -849,8 +928,12 @@
       <c r="H14" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -873,8 +956,12 @@
       <c r="H15" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -897,8 +984,12 @@
       <c r="H16" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -921,8 +1012,10 @@
       <c r="H17" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -945,8 +1038,10 @@
       <c r="H18" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -969,8 +1064,10 @@
       <c r="H19" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -993,8 +1090,10 @@
         <v>22</v>
       </c>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1017,8 +1116,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1041,8 +1142,10 @@
         <v>22</v>
       </c>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1065,8 +1168,10 @@
         <v>22</v>
       </c>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1089,8 +1194,10 @@
         <v>22</v>
       </c>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1111,8 +1218,10 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1133,8 +1242,10 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1155,8 +1266,10 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1177,8 +1290,10 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1199,8 +1314,10 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1221,8 +1338,10 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1243,8 +1362,10 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1265,8 +1386,12 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1287,8 +1412,12 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1309,8 +1438,12 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1331,8 +1464,12 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1353,8 +1490,12 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1375,8 +1516,12 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1397,8 +1542,10 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1419,8 +1566,10 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1441,8 +1590,10 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1463,8 +1614,10 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1485,8 +1638,10 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1507,8 +1662,10 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1529,8 +1686,10 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1551,8 +1710,10 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1573,8 +1734,10 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1595,8 +1758,10 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1617,8 +1782,10 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1639,8 +1806,10 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1661,8 +1830,10 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1683,8 +1854,10 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1705,8 +1878,10 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1727,8 +1902,10 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1749,8 +1926,10 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1771,8 +1950,10 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1793,8 +1974,10 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1815,8 +1998,10 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1837,8 +2022,10 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1859,8 +2046,10 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1881,8 +2070,10 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1903,8 +2094,10 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1925,8 +2118,10 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1947,8 +2142,10 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1969,8 +2166,10 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1991,8 +2190,10 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2013,8 +2214,10 @@
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2035,8 +2238,10 @@
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2057,8 +2262,10 @@
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2079,8 +2286,10 @@
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2101,8 +2310,10 @@
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2123,8 +2334,10 @@
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2145,8 +2358,10 @@
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2167,8 +2382,10 @@
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2189,8 +2406,10 @@
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2211,8 +2430,10 @@
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2233,8 +2454,10 @@
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2255,8 +2478,10 @@
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2277,8 +2502,10 @@
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2299,8 +2526,10 @@
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2321,8 +2550,10 @@
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2343,8 +2574,10 @@
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2365,8 +2598,10 @@
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2387,8 +2622,10 @@
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2409,8 +2646,10 @@
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2431,8 +2670,10 @@
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2453,8 +2694,10 @@
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2475,8 +2718,10 @@
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2497,8 +2742,10 @@
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2519,8 +2766,10 @@
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2541,8 +2790,10 @@
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2563,6 +2814,8 @@
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
